--- a/SUIVI DP et Q et CIP des RO  MCT.xlsx
+++ b/SUIVI DP et Q et CIP des RO  MCT.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="130">
   <si>
     <t xml:space="preserve">Train 1 </t>
   </si>
@@ -429,6 +429,10 @@
   </si>
   <si>
     <t>31 Aout</t>
+  </si>
+  <si>
+    <t>Q1=109  DP1= 5,9
+DP2=  5,3  Q2= 130</t>
   </si>
 </sst>
 </file>
@@ -1145,12 +1149,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1163,6 +1161,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1223,7 +1222,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,6 +1229,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1515,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -3869,14 +3873,30 @@
       <c r="A105" s="6">
         <v>45544</v>
       </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
+      <c r="B105" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="C105" s="7">
+        <v>130</v>
+      </c>
+      <c r="D105" s="19">
+        <v>5.6</v>
+      </c>
+      <c r="E105" s="7">
+        <v>100</v>
+      </c>
+      <c r="F105" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="G105" s="7">
+        <v>178</v>
+      </c>
+      <c r="H105" s="19">
+        <v>3.9</v>
+      </c>
+      <c r="I105" s="7">
+        <v>151</v>
+      </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="7"/>
@@ -4125,8 +4145,8 @@
   <dimension ref="A8:GI14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BX1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="CH15" sqref="CH15"/>
+      <pane xSplit="1" topLeftCell="FK1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="FQ19" sqref="FQ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4681,26 +4701,54 @@
       <c r="FR10" s="37">
         <v>45542</v>
       </c>
-      <c r="FS10" s="7"/>
-      <c r="FT10" s="7"/>
-      <c r="FU10" s="7"/>
-      <c r="FV10" s="7"/>
-      <c r="FW10" s="7"/>
-      <c r="FX10" s="7"/>
-      <c r="FY10" s="7"/>
-      <c r="FZ10" s="7"/>
-      <c r="GA10" s="7"/>
-      <c r="GB10" s="7"/>
-      <c r="GC10" s="7"/>
-      <c r="GD10" s="7"/>
-      <c r="GE10" s="7"/>
-      <c r="GF10" s="7"/>
+      <c r="FS10" s="37">
+        <v>45543</v>
+      </c>
+      <c r="FT10" s="37">
+        <v>45544</v>
+      </c>
+      <c r="FU10" s="37">
+        <v>45545</v>
+      </c>
+      <c r="FV10" s="37">
+        <v>45546</v>
+      </c>
+      <c r="FW10" s="37">
+        <v>45547</v>
+      </c>
+      <c r="FX10" s="37">
+        <v>45548</v>
+      </c>
+      <c r="FY10" s="37">
+        <v>45549</v>
+      </c>
+      <c r="FZ10" s="37">
+        <v>45550</v>
+      </c>
+      <c r="GA10" s="37">
+        <v>45551</v>
+      </c>
+      <c r="GB10" s="37">
+        <v>45552</v>
+      </c>
+      <c r="GC10" s="37">
+        <v>45553</v>
+      </c>
+      <c r="GD10" s="37">
+        <v>45554</v>
+      </c>
+      <c r="GE10" s="37">
+        <v>45555</v>
+      </c>
+      <c r="GF10" s="37">
+        <v>45556</v>
+      </c>
       <c r="GG10" s="7"/>
       <c r="GH10" s="7"/>
       <c r="GI10" s="7"/>
     </row>
     <row r="11" spans="1:191" ht="57" customHeight="1">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="83" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="12">
@@ -4736,10 +4784,10 @@
       <c r="AD11" s="14"/>
       <c r="AE11" s="14"/>
       <c r="AF11" s="14"/>
-      <c r="AG11" s="87" t="s">
+      <c r="AG11" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AH11" s="88"/>
+      <c r="AH11" s="87"/>
       <c r="AI11" s="13"/>
       <c r="AJ11" s="14"/>
       <c r="AK11" s="14"/>
@@ -4761,11 +4809,11 @@
       <c r="BA11" s="13"/>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
-      <c r="BD11" s="87" t="s">
+      <c r="BD11" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="BE11" s="89"/>
-      <c r="BF11" s="88"/>
+      <c r="BE11" s="88"/>
+      <c r="BF11" s="87"/>
       <c r="BG11" s="14"/>
       <c r="BH11" s="14"/>
       <c r="BI11" s="14"/>
@@ -4789,11 +4837,11 @@
       <c r="CA11" s="14"/>
       <c r="CB11" s="14"/>
       <c r="CC11" s="14"/>
-      <c r="CD11" s="90" t="s">
+      <c r="CD11" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="CE11" s="91"/>
-      <c r="CF11" s="92"/>
+      <c r="CE11" s="90"/>
+      <c r="CF11" s="91"/>
       <c r="CG11" s="14"/>
       <c r="CH11" s="14"/>
       <c r="CI11" s="14"/>
@@ -4810,11 +4858,11 @@
       <c r="CT11" s="14"/>
       <c r="CU11" s="14"/>
       <c r="CV11" s="14"/>
-      <c r="CW11" s="93" t="s">
+      <c r="CW11" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="CX11" s="94"/>
-      <c r="CY11" s="95"/>
+      <c r="CX11" s="93"/>
+      <c r="CY11" s="94"/>
       <c r="CZ11" s="14"/>
       <c r="DA11" s="14"/>
       <c r="DB11" s="46"/>
@@ -4837,11 +4885,11 @@
       <c r="DS11" s="7"/>
       <c r="DT11" s="7"/>
       <c r="DU11" s="7"/>
-      <c r="DV11" s="81" t="s">
+      <c r="DV11" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="DW11" s="82"/>
-      <c r="DX11" s="83"/>
+      <c r="DW11" s="80"/>
+      <c r="DX11" s="81"/>
       <c r="DY11" s="7"/>
       <c r="DZ11" s="7"/>
       <c r="EA11" s="7"/>
@@ -4855,11 +4903,11 @@
       <c r="EI11" s="7"/>
       <c r="EJ11" s="7"/>
       <c r="EK11" s="7"/>
-      <c r="EL11" s="81" t="s">
+      <c r="EL11" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="EM11" s="82"/>
-      <c r="EN11" s="83"/>
+      <c r="EM11" s="80"/>
+      <c r="EN11" s="81"/>
       <c r="EO11" s="7"/>
       <c r="EP11" s="7"/>
       <c r="EQ11" s="7"/>
@@ -4870,11 +4918,11 @@
       <c r="EV11" s="7"/>
       <c r="EW11" s="7"/>
       <c r="EX11" s="7"/>
-      <c r="EY11" s="81" t="s">
+      <c r="EY11" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="EZ11" s="82"/>
-      <c r="FA11" s="83"/>
+      <c r="EZ11" s="80"/>
+      <c r="FA11" s="81"/>
       <c r="FB11" s="7"/>
       <c r="FC11" s="7"/>
       <c r="FD11" s="7"/>
@@ -4891,8 +4939,10 @@
       <c r="FO11" s="7"/>
       <c r="FP11" s="7"/>
       <c r="FQ11" s="7"/>
-      <c r="FR11" s="7"/>
-      <c r="FS11" s="7"/>
+      <c r="FR11" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="FS11" s="82"/>
       <c r="FT11" s="7"/>
       <c r="FU11" s="7"/>
       <c r="FV11" s="7"/>
@@ -4911,7 +4961,7 @@
       <c r="GI11" s="7"/>
     </row>
     <row r="12" spans="1:191" ht="60.75" customHeight="1">
-      <c r="A12" s="85"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="64">
         <v>2</v>
       </c>
@@ -4943,10 +4993,10 @@
       <c r="AB12" s="65"/>
       <c r="AC12" s="65"/>
       <c r="AD12" s="65"/>
-      <c r="AE12" s="96" t="s">
+      <c r="AE12" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="AF12" s="97"/>
+      <c r="AF12" s="96"/>
       <c r="AG12" s="65"/>
       <c r="AH12" s="65"/>
       <c r="AI12" s="65"/>
@@ -4981,12 +5031,12 @@
       <c r="BL12" s="65"/>
       <c r="BM12" s="65"/>
       <c r="BN12" s="65"/>
-      <c r="BO12" s="98" t="s">
+      <c r="BO12" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="BP12" s="99"/>
-      <c r="BQ12" s="99"/>
-      <c r="BR12" s="100"/>
+      <c r="BP12" s="98"/>
+      <c r="BQ12" s="98"/>
+      <c r="BR12" s="99"/>
       <c r="BS12" s="65"/>
       <c r="BT12" s="65"/>
       <c r="BU12" s="65"/>
@@ -5011,10 +5061,10 @@
       <c r="CN12" s="65"/>
       <c r="CO12" s="65"/>
       <c r="CP12" s="65"/>
-      <c r="CQ12" s="98" t="s">
+      <c r="CQ12" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="CR12" s="100"/>
+      <c r="CR12" s="99"/>
       <c r="CS12" s="65"/>
       <c r="CT12" s="65"/>
       <c r="CU12" s="65"/>
@@ -5025,11 +5075,11 @@
       <c r="CZ12" s="66"/>
       <c r="DA12" s="66"/>
       <c r="DB12" s="67"/>
-      <c r="DC12" s="101" t="s">
+      <c r="DC12" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="DD12" s="102"/>
-      <c r="DE12" s="103"/>
+      <c r="DD12" s="101"/>
+      <c r="DE12" s="102"/>
       <c r="DF12" s="7"/>
       <c r="DG12" s="7"/>
       <c r="DH12" s="7"/>
@@ -5061,10 +5111,10 @@
       <c r="EH12" s="7"/>
       <c r="EI12" s="7"/>
       <c r="EJ12" s="7"/>
-      <c r="EK12" s="81" t="s">
+      <c r="EK12" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="EL12" s="104"/>
+      <c r="EL12" s="82"/>
       <c r="EM12" s="7"/>
       <c r="EN12" s="7"/>
       <c r="EO12" s="7"/>
@@ -5080,11 +5130,11 @@
       <c r="EY12" s="7"/>
       <c r="EZ12" s="7"/>
       <c r="FA12" s="7"/>
-      <c r="FB12" s="81" t="s">
+      <c r="FB12" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="FC12" s="82"/>
-      <c r="FD12" s="83"/>
+      <c r="FC12" s="80"/>
+      <c r="FD12" s="81"/>
       <c r="FE12" s="7"/>
       <c r="FF12" s="7"/>
       <c r="FG12" s="7"/>
@@ -5118,7 +5168,7 @@
       <c r="GI12" s="7"/>
     </row>
     <row r="13" spans="1:191" ht="36.75" customHeight="1">
-      <c r="A13" s="85"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="15">
         <v>3</v>
       </c>
@@ -5195,11 +5245,11 @@
       <c r="BU13" s="16"/>
       <c r="BV13" s="16"/>
       <c r="BW13" s="16"/>
-      <c r="BX13" s="105" t="s">
+      <c r="BX13" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="BY13" s="106"/>
-      <c r="BZ13" s="107"/>
+      <c r="BY13" s="104"/>
+      <c r="BZ13" s="105"/>
       <c r="CA13" s="16"/>
       <c r="CB13" s="16"/>
       <c r="CC13" s="16"/>
@@ -5224,11 +5274,11 @@
       <c r="CV13" s="16"/>
       <c r="CW13" s="16"/>
       <c r="CX13" s="45"/>
-      <c r="CY13" s="98" t="s">
+      <c r="CY13" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="CZ13" s="99"/>
-      <c r="DA13" s="100"/>
+      <c r="CZ13" s="98"/>
+      <c r="DA13" s="99"/>
       <c r="DB13" s="36"/>
       <c r="DC13" s="7"/>
       <c r="DD13" s="7"/>
@@ -5317,7 +5367,7 @@
       <c r="GI13" s="7"/>
     </row>
     <row r="14" spans="1:191" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A14" s="86"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="17">
         <v>4</v>
       </c>
@@ -5397,10 +5447,10 @@
       <c r="BX14" s="18"/>
       <c r="BY14" s="18"/>
       <c r="BZ14" s="18"/>
-      <c r="CA14" s="76" t="s">
+      <c r="CA14" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="CB14" s="77"/>
+      <c r="CB14" s="107"/>
       <c r="CC14" s="18"/>
       <c r="CD14" s="18"/>
       <c r="CE14" s="18"/>
@@ -5432,11 +5482,11 @@
       <c r="DE14" s="38"/>
       <c r="DF14" s="38"/>
       <c r="DG14" s="44"/>
-      <c r="DH14" s="78" t="s">
+      <c r="DH14" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="DI14" s="79"/>
-      <c r="DJ14" s="80"/>
+      <c r="DI14" s="77"/>
+      <c r="DJ14" s="78"/>
       <c r="DK14" s="7"/>
       <c r="DL14" s="7"/>
       <c r="DM14" s="7"/>
@@ -5466,11 +5516,11 @@
       <c r="EK14" s="7"/>
       <c r="EL14" s="7"/>
       <c r="EM14" s="7"/>
-      <c r="EN14" s="81" t="s">
+      <c r="EN14" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="EO14" s="82"/>
-      <c r="EP14" s="83"/>
+      <c r="EO14" s="80"/>
+      <c r="EP14" s="81"/>
       <c r="EQ14" s="7"/>
       <c r="ER14" s="7"/>
       <c r="ES14" s="7"/>
@@ -5518,9 +5568,12 @@
       <c r="GI14" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="EY11:FA11"/>
-    <mergeCell ref="FB12:FD12"/>
+  <mergeCells count="20">
+    <mergeCell ref="DC12:DE12"/>
+    <mergeCell ref="EK12:EL12"/>
+    <mergeCell ref="BX13:BZ13"/>
+    <mergeCell ref="CY13:DA13"/>
+    <mergeCell ref="CA14:CB14"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="AG11:AH11"/>
     <mergeCell ref="BD11:BF11"/>
@@ -5529,15 +5582,13 @@
     <mergeCell ref="AE12:AF12"/>
     <mergeCell ref="BO12:BR12"/>
     <mergeCell ref="CQ12:CR12"/>
-    <mergeCell ref="DC12:DE12"/>
-    <mergeCell ref="EK12:EL12"/>
-    <mergeCell ref="BX13:BZ13"/>
-    <mergeCell ref="CY13:DA13"/>
-    <mergeCell ref="CA14:CB14"/>
     <mergeCell ref="DH14:DJ14"/>
     <mergeCell ref="EN14:EP14"/>
     <mergeCell ref="DV11:DX11"/>
     <mergeCell ref="EL11:EN11"/>
+    <mergeCell ref="FR11:FS11"/>
+    <mergeCell ref="EY11:FA11"/>
+    <mergeCell ref="FB12:FD12"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5549,7 +5600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="108" zoomScaleNormal="117" workbookViewId="0">
+    <sheetView zoomScale="108" zoomScaleNormal="117" workbookViewId="0">
       <selection sqref="A1:J57"/>
     </sheetView>
   </sheetViews>
@@ -7191,10 +7242,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A99" sqref="A99:I101"/>
+    <sheetView topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -11028,6 +11079,120 @@
         <v>151</v>
       </c>
     </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="5">
+        <f>MCT!A103</f>
+        <v>45542</v>
+      </c>
+      <c r="B102" s="1">
+        <f>MCT!B103</f>
+        <v>0</v>
+      </c>
+      <c r="C102" s="2">
+        <f>MCT!C103</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="1">
+        <f>MCT!D103</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="2">
+        <f>MCT!E103</f>
+        <v>0</v>
+      </c>
+      <c r="F102" s="1">
+        <f>MCT!F103</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="2">
+        <f>MCT!G103</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
+        <f>MCT!H103</f>
+        <v>0</v>
+      </c>
+      <c r="I102" s="2">
+        <f>MCT!I103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="5">
+        <f>MCT!A104</f>
+        <v>45543</v>
+      </c>
+      <c r="B103" s="1">
+        <f>MCT!B104</f>
+        <v>0</v>
+      </c>
+      <c r="C103" s="2">
+        <f>MCT!C104</f>
+        <v>0</v>
+      </c>
+      <c r="D103" s="1">
+        <f>MCT!D104</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="2">
+        <f>MCT!E104</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="1">
+        <f>MCT!F104</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="2">
+        <f>MCT!G104</f>
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
+        <f>MCT!H104</f>
+        <v>0</v>
+      </c>
+      <c r="I103" s="2">
+        <f>MCT!I104</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="5">
+        <f>MCT!A105</f>
+        <v>45544</v>
+      </c>
+      <c r="B104" s="1">
+        <f>MCT!B105</f>
+        <v>5.3</v>
+      </c>
+      <c r="C104" s="2">
+        <f>MCT!C105</f>
+        <v>130</v>
+      </c>
+      <c r="D104" s="1">
+        <f>MCT!D105</f>
+        <v>5.6</v>
+      </c>
+      <c r="E104" s="2">
+        <f>MCT!E105</f>
+        <v>100</v>
+      </c>
+      <c r="F104" s="1">
+        <f>MCT!F105</f>
+        <v>0.6</v>
+      </c>
+      <c r="G104" s="2">
+        <f>MCT!G105</f>
+        <v>178</v>
+      </c>
+      <c r="H104" s="1">
+        <f>MCT!H105</f>
+        <v>3.9</v>
+      </c>
+      <c r="I104" s="2">
+        <f>MCT!I105</f>
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
